--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة ماجى دجاج شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>عصير تانج مانجو ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>سائل غسيل اطباق بريل ليمون - 2.55 كجم</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 5 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب 1.47 لتر</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>161</v>
+        <v>7708</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>765</v>
+        <v>165.75</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>42.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>345</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>345</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1010</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>792</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1490</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>580.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2424</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>860</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8915</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>8938</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>185</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8939</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>فول حبوبة تدميس - 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
+  </si>
+  <si>
     <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7708</v>
+        <v>2324</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +450,95 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>165.75</v>
+        <v>192.5</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3658</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>866</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>7708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>167.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>8216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>15.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>266.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فول حبوبة تدميس - 500 جم</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 4 ك + 1 ك - 5 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة هلالية - 350 جم</t>
-  </si>
-  <si>
     <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
-    <t>سندة سكر - 1 كجم</t>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>جبنة باندا فيتا  - 500 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,104 +435,87 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2324</v>
+        <v>8216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>192.5</v>
+        <v>16.25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3658</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>866</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>7708</v>
+        <v>9796</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>167.75</v>
+        <v>29.25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>8216</v>
+        <v>9796</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1404</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>15.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8216</v>
+        <v>21745</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>427.25</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>366</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>11404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>266.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>جبنة باندا فيتا  - 500 جم</t>
+    <t>عصير تانج برتقال ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>جبنـة ابو الولد - 8 مثلث</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,87 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8216</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>16.25</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9796</v>
+        <v>3495</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>29.25</v>
+        <v>1190</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9796</v>
+        <v>3495</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1404</v>
+        <v>29.75</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>21745</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>427.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير تانج برتقال ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>جبنـة ابو الولد - 8 مثلث</t>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>201</v>
+        <v>1274</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,61 +450,146 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1050</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>201</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>28.5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3495</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>1190</v>
+        <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3495</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3558</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1368</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>8216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21687</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>29.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21687</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة حواء هلالية - 400 جم</t>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>زيت عافية عباد الشمس - 2.2 لتر</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>هاي جين مناديل جيب مبللة بالحماية المزدوجة 10+5_ 15 منديل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +441,121 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>318.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2537</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>259.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>9797</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9797</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>860</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>107.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_703_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة عنب احمر - 235 مل</t>
-  </si>
-  <si>
-    <t>كوكا كولا جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>زيت عافية عباد الشمس - 2.2 لتر</t>
+    <t>عسل البوادى اسود - 355 جم</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
     <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
   </si>
   <si>
-    <t>هاي جين مناديل جيب مبللة بالحماية المزدوجة 10+5_ 15 منديل</t>
+    <t>كوكا كولا كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,121 +447,240 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>615</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>318.75</v>
+        <v>22.75</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2537</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>775</v>
+        <v>136.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9797</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>546</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9797</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1440</v>
+        <v>1070</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20317</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>860</v>
+        <v>267.5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20317</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>26.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>535</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>14.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9797</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>32.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9797</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11396</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>107.5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>326.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11814</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
